--- a/data/exponential_gpr_constant_results.xlsx
+++ b/data/exponential_gpr_constant_results.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.702305</v>
+        <v>0.825684</v>
       </c>
       <c r="B2" t="n">
-        <v>0.385515</v>
+        <v>0.342374</v>
       </c>
       <c r="C2" t="n">
-        <v>5.267469</v>
+        <v>4.394602</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
